--- a/biology/Zoologie/Canthigaster_axiologus/Canthigaster_axiologus.xlsx
+++ b/biology/Zoologie/Canthigaster_axiologus/Canthigaster_axiologus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Canthigaster axiologus est une espèce de poissons marins de la famille des Tetraodontidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'espèce Canthigaster axiologus a été décrite en 1931 par l'ichtyologiste australien Gilbert Percy Whitley[1],[2] (1903-1975). 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'espèce Canthigaster axiologus a été décrite en 1931 par l'ichtyologiste australien Gilbert Percy Whitley, (1903-1975). 
 </t>
         </is>
       </c>
@@ -542,10 +556,12 @@
           <t>Répartition, habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Canthigaster axiologus est présent dans les eaux tropicales de l'Indo/ouest Pacifique, mer Rouge incluse[3].
-Il s'agit d'une espèce de récifs qui est présente entre 10 et 80 m de profondeur[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Canthigaster axiologus est présent dans les eaux tropicales de l'Indo/ouest Pacifique, mer Rouge incluse.
+Il s'agit d'une espèce de récifs qui est présente entre 10 et 80 m de profondeur.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Sa taille maximale est de 10,1 cm[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sa taille maximale est de 10,1 cm.
 </t>
         </is>
       </c>
@@ -605,7 +623,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) Gilbert P. Whitley, « New names for Australian fishes », Australian Zoologist, Sydney, Royal Zoological Society of New South Wales (d), vol. 6, no 4,‎ 13 février 1931, p. 310-334 (ISSN 0067-2238 et 2204-2105, OCLC 1782007, lire en ligne)</t>
         </is>
